--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-69.79166666666666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-74.56140350877193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-101</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-77.69230769230769</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-81.29032258064515</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-55.29411764705883</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-66</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-63.46153846153846</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-87</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-69.59999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-121</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-76.10062893081762</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110</v>
+      </c>
+      <c r="E4" t="n">
+        <v>137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-71.42857142857143</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-71</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-76.34408602150538</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-80</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-83.94160583941606</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-61.29032258064516</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-67.56756756756756</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-72.72727272727273</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-86</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-78.18181818181819</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-28.33333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-41.0958904109589</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-51.13636363636363</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-61.26126126126125</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88</v>
+      </c>
+      <c r="E7" t="n">
+        <v>111</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-58.9041095890411</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-58</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-65.90909090909091</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-72.97297297297297</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63</v>
+      </c>
+      <c r="C8" t="n">
+        <v>77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>118</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-73.01587301587301</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-60</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-77.92207792207793</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-81.52173913043478</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-85.59322033898306</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>120</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-60.9375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-67.53246753246754</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-69</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-73.40425531914893</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-79.16666666666666</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>74</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>112</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-57.37704918032787</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-64.86486486486487</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-70.78651685393258</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-86</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-76.78571428571429</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77</v>
+      </c>
+      <c r="D11" t="n">
+        <v>94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>121</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-18.18181818181818</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-32.97872340425532</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-58</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-47.93388429752066</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>78</v>
+      </c>
+      <c r="D12" t="n">
         <v>96</v>
       </c>
-      <c r="E2" t="n">
-        <v>114</v>
-      </c>
-      <c r="F2" t="n">
-        <v>130</v>
-      </c>
-      <c r="G2" t="n">
-        <v>155</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="E12" t="n">
+        <v>125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3.125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-20.51282051282051</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-34</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-35.41666666666667</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-50.4</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>82</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>131</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-17.91044776119403</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-27</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-32.92682926829269</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-76</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-58.01526717557252</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>70.10000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>104</v>
-      </c>
-      <c r="F3" t="n">
-        <v>125</v>
-      </c>
-      <c r="G3" t="n">
-        <v>159</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" t="n">
+        <v>124</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-37</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-57.8125</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-51</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-65.38461538461539</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-69</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-71.875</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-97</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-78.2258064516129</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>54.90000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77</v>
-      </c>
-      <c r="E4" t="n">
-        <v>93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>110</v>
-      </c>
-      <c r="G4" t="n">
-        <v>137</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>72</v>
+      </c>
+      <c r="D15" t="n">
+        <v>92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>123</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-37.28813559322034</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-48.61111111111111</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-59.78260869565217</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-86</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-69.91869918699187</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62</v>
-      </c>
-      <c r="E5" t="n">
-        <v>74</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>110</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92</v>
+      </c>
+      <c r="E16" t="n">
+        <v>123</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-64.40677966101694</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-71.23287671232876</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-71</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-77.17391304347827</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-102</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-82.92682926829268</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>111</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" t="n">
+        <v>89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>119</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-57.89473684210527</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-46</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-65.71428571428571</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-73.03370786516854</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-79.83193277310924</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B0D2RL4PT6</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>73</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>111</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>63</v>
-      </c>
-      <c r="E8" t="n">
-        <v>77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>92</v>
-      </c>
-      <c r="G8" t="n">
-        <v>118</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>64</v>
-      </c>
-      <c r="E9" t="n">
-        <v>77</v>
-      </c>
-      <c r="F9" t="n">
-        <v>94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>120</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61</v>
-      </c>
-      <c r="E10" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" t="n">
-        <v>89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>112</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" t="n">
-        <v>94</v>
-      </c>
-      <c r="G11" t="n">
-        <v>121</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>64</v>
-      </c>
-      <c r="E12" t="n">
-        <v>78</v>
-      </c>
-      <c r="F12" t="n">
-        <v>96</v>
-      </c>
-      <c r="G12" t="n">
-        <v>125</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>71</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>82</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>131</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>64</v>
-      </c>
-      <c r="E14" t="n">
-        <v>78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>96</v>
-      </c>
-      <c r="G14" t="n">
-        <v>124</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59</v>
-      </c>
-      <c r="E15" t="n">
-        <v>72</v>
-      </c>
-      <c r="F15" t="n">
-        <v>92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>123</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>59</v>
-      </c>
-      <c r="E16" t="n">
-        <v>73</v>
-      </c>
-      <c r="F16" t="n">
-        <v>92</v>
-      </c>
-      <c r="G16" t="n">
-        <v>123</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57</v>
-      </c>
-      <c r="E17" t="n">
-        <v>70</v>
-      </c>
-      <c r="F17" t="n">
-        <v>89</v>
-      </c>
-      <c r="G17" t="n">
-        <v>119</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>543</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>17</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
         <v>96</v>
@@ -531,28 +531,28 @@
         <v>155</v>
       </c>
       <c r="F2" t="n">
-        <v>-67</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.79166666666666</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>-85</v>
+        <v>-34</v>
       </c>
       <c r="I2" t="n">
-        <v>-74.56140350877193</v>
+        <v>-29.82456140350877</v>
       </c>
       <c r="J2" t="n">
-        <v>-101</v>
+        <v>-50</v>
       </c>
       <c r="K2" t="n">
-        <v>-77.69230769230769</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L2" t="n">
-        <v>-126</v>
+        <v>-75</v>
       </c>
       <c r="M2" t="n">
-        <v>-81.29032258064515</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B3" t="n">
         <v>85</v>
@@ -593,28 +593,28 @@
         <v>159</v>
       </c>
       <c r="F3" t="n">
-        <v>-47</v>
+        <v>-12</v>
       </c>
       <c r="G3" t="n">
-        <v>-55.29411764705883</v>
+        <v>-14.11764705882353</v>
       </c>
       <c r="H3" t="n">
-        <v>-66</v>
+        <v>-31</v>
       </c>
       <c r="I3" t="n">
-        <v>-63.46153846153846</v>
+        <v>-29.80769230769231</v>
       </c>
       <c r="J3" t="n">
-        <v>-87</v>
+        <v>-52</v>
       </c>
       <c r="K3" t="n">
-        <v>-69.59999999999999</v>
+        <v>-41.6</v>
       </c>
       <c r="L3" t="n">
-        <v>-121</v>
+        <v>-86</v>
       </c>
       <c r="M3" t="n">
-        <v>-76.10062893081762</v>
+        <v>-54.08805031446541</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B4" t="n">
         <v>77</v>
@@ -655,28 +655,28 @@
         <v>137</v>
       </c>
       <c r="F4" t="n">
-        <v>-55</v>
+        <v>-12</v>
       </c>
       <c r="G4" t="n">
-        <v>-71.42857142857143</v>
+        <v>-15.58441558441558</v>
       </c>
       <c r="H4" t="n">
-        <v>-71</v>
+        <v>-28</v>
       </c>
       <c r="I4" t="n">
-        <v>-76.34408602150538</v>
+        <v>-30.10752688172043</v>
       </c>
       <c r="J4" t="n">
-        <v>-88</v>
+        <v>-45</v>
       </c>
       <c r="K4" t="n">
-        <v>-80</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L4" t="n">
-        <v>-115</v>
+        <v>-72</v>
       </c>
       <c r="M4" t="n">
-        <v>-83.94160583941606</v>
+        <v>-52.55474452554745</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
         <v>62</v>
@@ -717,28 +717,28 @@
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>-38</v>
+        <v>-10</v>
       </c>
       <c r="G5" t="n">
-        <v>-61.29032258064516</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="H5" t="n">
-        <v>-50</v>
+        <v>-22</v>
       </c>
       <c r="I5" t="n">
-        <v>-67.56756756756756</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="J5" t="n">
-        <v>-64</v>
+        <v>-36</v>
       </c>
       <c r="K5" t="n">
-        <v>-72.72727272727273</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>-86</v>
+        <v>-58</v>
       </c>
       <c r="M5" t="n">
-        <v>-78.18181818181819</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B6" t="n">
         <v>60</v>
@@ -779,28 +779,28 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.33333333333333</v>
+        <v>-15</v>
       </c>
       <c r="H6" t="n">
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.0958904109589</v>
+        <v>-30.13698630136986</v>
       </c>
       <c r="J6" t="n">
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="K6" t="n">
-        <v>-51.13636363636363</v>
+        <v>-42.04545454545455</v>
       </c>
       <c r="L6" t="n">
-        <v>-68</v>
+        <v>-60</v>
       </c>
       <c r="M6" t="n">
-        <v>-61.26126126126125</v>
+        <v>-54.05405405405406</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
         <v>60</v>
@@ -841,28 +841,28 @@
         <v>111</v>
       </c>
       <c r="F7" t="n">
-        <v>-30</v>
+        <v>-9</v>
       </c>
       <c r="G7" t="n">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="H7" t="n">
-        <v>-43</v>
+        <v>-22</v>
       </c>
       <c r="I7" t="n">
-        <v>-58.9041095890411</v>
+        <v>-30.13698630136986</v>
       </c>
       <c r="J7" t="n">
-        <v>-58</v>
+        <v>-37</v>
       </c>
       <c r="K7" t="n">
-        <v>-65.90909090909091</v>
+        <v>-42.04545454545455</v>
       </c>
       <c r="L7" t="n">
-        <v>-81</v>
+        <v>-60</v>
       </c>
       <c r="M7" t="n">
-        <v>-72.97297297297297</v>
+        <v>-54.05405405405406</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B8" t="n">
         <v>63</v>
@@ -903,28 +903,28 @@
         <v>118</v>
       </c>
       <c r="F8" t="n">
-        <v>-46</v>
+        <v>-9</v>
       </c>
       <c r="G8" t="n">
-        <v>-73.01587301587301</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H8" t="n">
-        <v>-60</v>
+        <v>-23</v>
       </c>
       <c r="I8" t="n">
-        <v>-77.92207792207793</v>
+        <v>-29.87012987012987</v>
       </c>
       <c r="J8" t="n">
-        <v>-75</v>
+        <v>-38</v>
       </c>
       <c r="K8" t="n">
-        <v>-81.52173913043478</v>
+        <v>-41.30434782608695</v>
       </c>
       <c r="L8" t="n">
-        <v>-101</v>
+        <v>-64</v>
       </c>
       <c r="M8" t="n">
-        <v>-85.59322033898306</v>
+        <v>-54.23728813559322</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B9" t="n">
         <v>64</v>
@@ -965,28 +965,28 @@
         <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>-39</v>
+        <v>-10</v>
       </c>
       <c r="G9" t="n">
-        <v>-60.9375</v>
+        <v>-15.625</v>
       </c>
       <c r="H9" t="n">
-        <v>-52</v>
+        <v>-23</v>
       </c>
       <c r="I9" t="n">
-        <v>-67.53246753246754</v>
+        <v>-29.87012987012987</v>
       </c>
       <c r="J9" t="n">
-        <v>-69</v>
+        <v>-40</v>
       </c>
       <c r="K9" t="n">
-        <v>-73.40425531914893</v>
+        <v>-42.5531914893617</v>
       </c>
       <c r="L9" t="n">
-        <v>-95</v>
+        <v>-66</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.16666666666666</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B10" t="n">
         <v>61</v>
@@ -1027,28 +1027,28 @@
         <v>112</v>
       </c>
       <c r="F10" t="n">
-        <v>-35</v>
+        <v>-9</v>
       </c>
       <c r="G10" t="n">
-        <v>-57.37704918032787</v>
+        <v>-14.75409836065574</v>
       </c>
       <c r="H10" t="n">
-        <v>-48</v>
+        <v>-22</v>
       </c>
       <c r="I10" t="n">
-        <v>-64.86486486486487</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="J10" t="n">
-        <v>-63</v>
+        <v>-37</v>
       </c>
       <c r="K10" t="n">
-        <v>-70.78651685393258</v>
+        <v>-41.57303370786517</v>
       </c>
       <c r="L10" t="n">
-        <v>-86</v>
+        <v>-60</v>
       </c>
       <c r="M10" t="n">
-        <v>-76.78571428571429</v>
+        <v>-53.57142857142857</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="n">
         <v>67</v>
@@ -1213,28 +1213,28 @@
         <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.91044776119403</v>
+        <v>-14.92537313432836</v>
       </c>
       <c r="H13" t="n">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.92682926829269</v>
+        <v>-30.48780487804878</v>
       </c>
       <c r="J13" t="n">
-        <v>-45</v>
+        <v>-43</v>
       </c>
       <c r="K13" t="n">
-        <v>-45</v>
+        <v>-43</v>
       </c>
       <c r="L13" t="n">
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="M13" t="n">
-        <v>-58.01526717557252</v>
+        <v>-56.48854961832062</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B14" t="n">
         <v>64</v>
@@ -1275,28 +1275,28 @@
         <v>124</v>
       </c>
       <c r="F14" t="n">
-        <v>-37</v>
+        <v>-9</v>
       </c>
       <c r="G14" t="n">
-        <v>-57.8125</v>
+        <v>-14.0625</v>
       </c>
       <c r="H14" t="n">
-        <v>-51</v>
+        <v>-23</v>
       </c>
       <c r="I14" t="n">
-        <v>-65.38461538461539</v>
+        <v>-29.48717948717949</v>
       </c>
       <c r="J14" t="n">
+        <v>-41</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-42.70833333333333</v>
+      </c>
+      <c r="L14" t="n">
         <v>-69</v>
       </c>
-      <c r="K14" t="n">
-        <v>-71.875</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-97</v>
-      </c>
       <c r="M14" t="n">
-        <v>-78.2258064516129</v>
+        <v>-55.64516129032258</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B15" t="n">
         <v>59</v>
@@ -1337,28 +1337,28 @@
         <v>123</v>
       </c>
       <c r="F15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-15.25423728813559</v>
+      </c>
+      <c r="H15" t="n">
         <v>-22</v>
       </c>
-      <c r="G15" t="n">
-        <v>-37.28813559322034</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-35</v>
-      </c>
       <c r="I15" t="n">
-        <v>-48.61111111111111</v>
+        <v>-30.55555555555556</v>
       </c>
       <c r="J15" t="n">
-        <v>-55</v>
+        <v>-42</v>
       </c>
       <c r="K15" t="n">
-        <v>-59.78260869565217</v>
+        <v>-45.65217391304348</v>
       </c>
       <c r="L15" t="n">
-        <v>-86</v>
+        <v>-73</v>
       </c>
       <c r="M15" t="n">
-        <v>-69.91869918699187</v>
+        <v>-59.34959349593496</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
         <v>59</v>
@@ -1399,28 +1399,28 @@
         <v>123</v>
       </c>
       <c r="F16" t="n">
-        <v>-38</v>
+        <v>-8</v>
       </c>
       <c r="G16" t="n">
-        <v>-64.40677966101694</v>
+        <v>-13.5593220338983</v>
       </c>
       <c r="H16" t="n">
-        <v>-52</v>
+        <v>-22</v>
       </c>
       <c r="I16" t="n">
-        <v>-71.23287671232876</v>
+        <v>-30.13698630136986</v>
       </c>
       <c r="J16" t="n">
-        <v>-71</v>
+        <v>-41</v>
       </c>
       <c r="K16" t="n">
-        <v>-77.17391304347827</v>
+        <v>-44.56521739130434</v>
       </c>
       <c r="L16" t="n">
-        <v>-102</v>
+        <v>-72</v>
       </c>
       <c r="M16" t="n">
-        <v>-82.92682926829268</v>
+        <v>-58.53658536585365</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
         <v>57</v>
@@ -1461,28 +1461,28 @@
         <v>119</v>
       </c>
       <c r="F17" t="n">
-        <v>-33</v>
+        <v>-8</v>
       </c>
       <c r="G17" t="n">
-        <v>-57.89473684210527</v>
+        <v>-14.03508771929824</v>
       </c>
       <c r="H17" t="n">
-        <v>-46</v>
+        <v>-21</v>
       </c>
       <c r="I17" t="n">
-        <v>-65.71428571428571</v>
+        <v>-30</v>
       </c>
       <c r="J17" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="K17" t="n">
-        <v>-73.03370786516854</v>
+        <v>-44.9438202247191</v>
       </c>
       <c r="L17" t="n">
-        <v>-95</v>
+        <v>-70</v>
       </c>
       <c r="M17" t="n">
-        <v>-79.83193277310924</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>919</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>480</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>270</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>160</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
         <v>159</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
         <v>92</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1535</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>112</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>173</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>202</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>229</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>271</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>104</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>105</v>
+      </c>
+      <c r="E3" t="n">
         <v>160</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>193</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>228</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>282</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>107</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>106</v>
+      </c>
+      <c r="E4" t="n">
         <v>159</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>194</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>235</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>301</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>101</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>146</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>178</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>214</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>271</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>85</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>94</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>113</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>135</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>170</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>87</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>95</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>115</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>138</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>174</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>92</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>96</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>117</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>143</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>185</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>96</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>100</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>123</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>153</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>202</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>94</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>95</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>116</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>140</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>180</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>92</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>93</v>
+      </c>
+      <c r="E11" t="n">
         <v>96</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>118</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>148</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>197</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>93</v>
+      </c>
+      <c r="E12" t="n">
         <v>92</v>
       </c>
-      <c r="D12" t="n">
-        <v>92</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>112</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>142</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>190</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>99</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
         <v>98</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>120</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>151</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>202</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>101</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>92</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>113</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>141</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>188</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>77</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>88</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>108</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>136</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>182</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>97</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>89</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>109</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>139</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>189</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>98</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>88</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>107</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>136</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>182</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1536</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
         <v>96</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v>98</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" t="n">
         <v>89</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1537</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>785</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>425</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
         <v>160</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
         <v>98</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1535</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>783</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>424</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>173</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
         <v>160</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E4" t="n">
         <v>159</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E5" t="n">
         <v>146</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
         <v>95</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E10" t="n">
         <v>95</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E11" t="n">
         <v>96</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E12" t="n">
         <v>92</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E13" t="n">
         <v>98</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E14" t="n">
         <v>92</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E15" t="n">
         <v>88</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E16" t="n">
         <v>89</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" t="n">
         <v>88</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-05 to 2024-12-29</t>
+          <t>2024-05-05 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1330 units</t>
+          <t>1488 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>2001</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>945</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>449</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G2" t="n">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="H2" t="n">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F3" t="n">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="G3" t="n">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="H3" t="n">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="G4" t="n">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="H4" t="n">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="G5" t="n">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="H5" t="n">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -660,10 +660,10 @@
         <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H6" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G7" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H7" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G9" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H9" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G10" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H10" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G11" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H11" t="n">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H12" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F13" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G13" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H13" t="n">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G14" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H14" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H15" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G16" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H16" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H17" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-05 to 2025-01-05</t>
+          <t>2024-05-05 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1488 units</t>
+          <t>1714 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1481</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>756</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>376</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E15" t="n">
         <v>86</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>1544</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
         <v>137</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E3" t="n">
         <v>138</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
         <v>97</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
         <v>95</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E7" t="n">
         <v>93</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>97</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E9" t="n">
         <v>98</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E11" t="n">
         <v>91</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="E12" t="n">
         <v>91</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E13" t="n">
         <v>91</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="E14" t="n">
         <v>89</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E15" t="n">
         <v>86</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>2033</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>941</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>442</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
         <v>137</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E3" t="n">
         <v>138</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
         <v>97</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E5" t="n">
         <v>95</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
         <v>93</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
         <v>97</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
         <v>98</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
         <v>91</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
         <v>91</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E13" t="n">
         <v>91</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>89</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>86</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-05 to 2025-01-12</t>
+          <t>2024-05-05 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1714 units</t>
+          <t>2083 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>1723</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>961</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>464</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2083 units</t>
+          <t>1707 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="E2" t="n">
         <v>137</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="E3" t="n">
         <v>138</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
         <v>97</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E14" t="n">
         <v>89</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1054</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>557</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G2" t="n">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="H2" t="n">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="F3" t="n">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G4" t="n">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G5" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="H5" t="n">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G6" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H6" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E7" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F7" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H7" t="n">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G8" t="n">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H9" t="n">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F10" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G10" t="n">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H10" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H11" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F12" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G12" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H12" t="n">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F13" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G13" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H13" t="n">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F14" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G14" t="n">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="H14" t="n">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F15" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G15" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F16" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G16" t="n">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H16" t="n">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F17" t="n">
+        <v>79</v>
+      </c>
+      <c r="G17" t="n">
         <v>100</v>
       </c>
-      <c r="G17" t="n">
-        <v>124</v>
-      </c>
       <c r="H17" t="n">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-05 to 2025-01-19</t>
+          <t>2024-05-05 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1707 units</t>
+          <t>1712 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1452</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>735</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>353</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
+++ b/Sufficient data/forecast_summary_B0D2RL4PT6.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
         <v>86</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>69</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>74</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
         <v>74</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
         <v>75</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
         <v>77</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1441</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>724</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>348</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
     </row>
